--- a/biology/Zoologie/Dolium_géant/Dolium_géant.xlsx
+++ b/biology/Zoologie/Dolium_géant/Dolium_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolium_g%C3%A9ant</t>
+          <t>Dolium_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tonna galea
 Le Dolium géant aussi appelé tonne cannelée (Tonna galea) est une espèce de mollusques gastéropodes marins de la famille des Tonnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolium_g%C3%A9ant</t>
+          <t>Dolium_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce coquillage mesure en moyenne de 10 à 15 cm de haut[1]. Sa taille maximale : 25 cm. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce coquillage mesure en moyenne de 10 à 15 cm de haut. Sa taille maximale : 25 cm. 
 Sa couleur varie du jaune au crème et au noisette.
 			Coquille
 			Image radiographique standard de Dolium géant
-Ce mollusque possède des glandes buccales qui, fait unique chez un animal, produisent une sécrétion contenant entre 2 et 4 % d'acide sulfurique. Cette sécrétion est injectée sous pression par la trompe à l'intérieur de la proie[2].
+Ce mollusque possède des glandes buccales qui, fait unique chez un animal, produisent une sécrétion contenant entre 2 et 4 % d'acide sulfurique. Cette sécrétion est injectée sous pression par la trompe à l'intérieur de la proie.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolium_g%C3%A9ant</t>
+          <t>Dolium_géant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est cosmopolite mais absente des mers froides. Elle vit sur les hauts-fonds boueux des côtes les plus chaudes de Méditerranée et du Portugal et elle est également présente dans les Caraïbes et dans le Pacifique, dans les régions tropicales.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolium_g%C3%A9ant</t>
+          <t>Dolium_géant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce coquillage figure sur une émission de l'Angola de 1974 (valeur faciale : 7 $).
 </t>
